--- a/src/Gabriel/ML_Workbook_1/Findings/Classification Ranking.xlsx
+++ b/src/Gabriel/ML_Workbook_1/Findings/Classification Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="70">
   <si>
     <t>Accuracy</t>
   </si>
@@ -170,6 +170,63 @@
   </si>
   <si>
     <t>{'n_estimators': 12000, 'n_jobs': 4}</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier(bootstrap=True, class_weight=None, criterion='gini',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            max_depth=None, max_features='sqrt', max_leaf_nodes=None,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            min_weight_fraction_leaf=0.0, n_estimators=12000, n_jobs=6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            warm_start=False)</t>
+  </si>
+  <si>
+    <t>{'n_estimators': 12000, 'n_jobs':6, 'max_features':'sqrt','criterion':'gini'}</t>
+  </si>
+  <si>
+    <t>var9(t), var3(t), var12(t)</t>
+  </si>
+  <si>
+    <t>var9(t), var9(t-1), var4(t), var3(t), var12(t), var10(t-1)</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>var9(t-2), var12(t), var12(t-2)</t>
+  </si>
+  <si>
+    <t>Feature Selection Method</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>GradientBoosting</t>
+  </si>
+  <si>
+    <t>var1(t), var9(t), var9(t-2), var12(t-2), var9(t-1), var10(t-2), var4(t), var10(t-1), var12(t), var3(t)</t>
+  </si>
+  <si>
+    <t>var10(t-1), var9(t), var9(t-1), var1(t)</t>
+  </si>
+  <si>
+    <t>var9(t-2), var9(t-3), var3(t-3), var9(t), var9(t-4)</t>
+  </si>
+  <si>
+    <t>var9(t-4), var9(t-3), var1(t-4), var12(t-5), var8(t-3), var8(t-2), var11, var10(t-3), var1(t)</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Cross Validation Split</t>
+  </si>
+  <si>
+    <t>80/20%</t>
   </si>
 </sst>
 </file>
@@ -520,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -1435,20 +1492,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D106" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="87.42578125" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1516,7 @@
         <v>14980</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1464,15 +1524,8 @@
         <v>14976</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1486,16 +1539,25 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1509,71 +1571,80 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.93057409879800002</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2">
         <v>0.93037252707899998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1587,71 +1658,1002 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.930240320427</v>
       </c>
-      <c r="G18" s="2">
+      <c r="J18" s="2">
         <v>0.93003459602600003</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.93124165554100002</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.93103573022700004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.93190921228300005</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.93175335980700003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.93124165554100002</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.93106654963699997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.92122830440600001</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.92100673278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.92721202003299996</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.92700255257200004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.92721202003299996</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.92702874226999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>62</v>
+      </c>
+      <c r="H72" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.92420701168599995</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.92395686509399999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0.92621035058400003</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0.92597375524299996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" t="s">
+        <v>59</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0.93257676902499997</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0.93241671326499997</v>
+      </c>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0.91619365609299996</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0.91594885467700005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>69</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0.92420701168599995</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.92388736352699996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>69</v>
+      </c>
+      <c r="G107" t="s">
+        <v>61</v>
+      </c>
+      <c r="H107" t="s">
+        <v>65</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0.92754590984999996</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0.92724857879900002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I114" s="2">
+        <v>0.92754590984999996</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0.92726484287300004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>16</v>
+      </c>
+      <c r="B121" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" t="s">
+        <v>61</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0.93124165554100002</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0.93106654963699997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G127" t="s">
+        <v>61</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0.93491321762299995</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0.93472719932500004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Gabriel/ML_Workbook_1/Findings/Classification Ranking.xlsx
+++ b/src/Gabriel/ML_Workbook_1/Findings/Classification Ranking.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="74">
   <si>
     <t>Accuracy</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>80/20%</t>
+  </si>
+  <si>
+    <t>70/30%</t>
+  </si>
+  <si>
+    <t>75/25%</t>
+  </si>
+  <si>
+    <t>85/15%</t>
+  </si>
+  <si>
+    <t>90/10%</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D106" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,10 +2633,10 @@
         <v>1</v>
       </c>
       <c r="I127" s="2">
-        <v>0.93491321762299995</v>
+        <v>0.93558077436599996</v>
       </c>
       <c r="J127" s="2">
-        <v>0.93472719932500004</v>
+        <v>0.93539079920099999</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,23 +2644,251 @@
         <v>52</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>18</v>
+      </c>
+      <c r="B133" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>70</v>
+      </c>
+      <c r="G133" t="s">
+        <v>61</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0.92677498330700003</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0.92655824004300003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>51</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>3</v>
+      </c>
+      <c r="F139" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" t="s">
+        <v>61</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0.93135683760700005</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0.93114810886300003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>3</v>
+      </c>
+      <c r="F145" t="s">
+        <v>73</v>
+      </c>
+      <c r="G145" t="s">
+        <v>61</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.93457943925200004</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0.93435051452899998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" t="s">
+        <v>72</v>
+      </c>
+      <c r="G151" t="s">
+        <v>61</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0.93368936359599997</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0.93347648280700002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>44</v>
       </c>
     </row>
